--- a/ITI/PIXm/3.0.0/StructureDefinition-IHE.PIXm.Patient.BirthDateRequired.xlsx
+++ b/ITI/PIXm/3.0.0/StructureDefinition-IHE.PIXm.Patient.BirthDateRequired.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T07:50:28-06:00</t>
+    <t>2021-11-08T19:38:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
